--- a/temp_models/accuracies/overall_stats/max_r_overall_stats.xlsx
+++ b/temp_models/accuracies/overall_stats/max_r_overall_stats.xlsx
@@ -522,49 +522,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>482</v>
+        <v>113</v>
       </c>
       <c r="C2" t="n">
-        <v>458</v>
+        <v>105</v>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>165192.22</v>
+        <v>35024.97</v>
       </c>
       <c r="F2" t="n">
-        <v>1180</v>
+        <v>348</v>
       </c>
       <c r="G2" t="n">
-        <v>4954.138650593386</v>
+        <v>1397.901641398479</v>
       </c>
       <c r="H2" t="n">
-        <v>95.02</v>
+        <v>92.92</v>
       </c>
       <c r="I2" t="n">
-        <v>7.37</v>
+        <v>7.83</v>
       </c>
       <c r="J2" t="n">
-        <v>4149.98</v>
+        <v>3125.01</v>
       </c>
       <c r="K2" t="n">
-        <v>350.38</v>
+        <v>321.2</v>
       </c>
       <c r="L2" t="n">
-        <v>-58.97</v>
+        <v>-55.89</v>
       </c>
       <c r="M2" t="n">
-        <v>957</v>
+        <v>188.75</v>
       </c>
       <c r="N2" t="n">
-        <v>1.99</v>
+        <v>1.67</v>
       </c>
       <c r="O2" t="n">
-        <v>159058.08</v>
+        <v>33279.07</v>
       </c>
       <c r="P2" t="n">
-        <v>26.93</v>
+        <v>20.06</v>
       </c>
     </row>
     <row r="3">
@@ -574,49 +574,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>489</v>
+        <v>111</v>
       </c>
       <c r="C3" t="n">
-        <v>460</v>
+        <v>106</v>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>162982.77</v>
+        <v>34537.06999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>1425</v>
+        <v>221</v>
       </c>
       <c r="G3" t="n">
-        <v>5013.104382511139</v>
+        <v>1353.799795035902</v>
       </c>
       <c r="H3" t="n">
-        <v>94.06999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="I3" t="n">
-        <v>7.24</v>
+        <v>7.63</v>
       </c>
       <c r="J3" t="n">
-        <v>4149.98</v>
+        <v>3125.01</v>
       </c>
       <c r="K3" t="n">
-        <v>344.01</v>
+        <v>313.61</v>
       </c>
       <c r="L3" t="n">
-        <v>-58.57</v>
+        <v>-56.04</v>
       </c>
       <c r="M3" t="n">
-        <v>966.75</v>
+        <v>187.25</v>
       </c>
       <c r="N3" t="n">
-        <v>1.98</v>
+        <v>1.69</v>
       </c>
       <c r="O3" t="n">
-        <v>156544.67</v>
+        <v>32962.27</v>
       </c>
       <c r="P3" t="n">
-        <v>25.32</v>
+        <v>21.93</v>
       </c>
     </row>
     <row r="4">
@@ -626,49 +626,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>470</v>
+        <v>107</v>
       </c>
       <c r="C4" t="n">
-        <v>448</v>
+        <v>105</v>
       </c>
       <c r="D4" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>160507.22</v>
+        <v>34071.07000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>1083</v>
+        <v>91</v>
       </c>
       <c r="G4" t="n">
-        <v>4863.785015170752</v>
+        <v>1311.542161780268</v>
       </c>
       <c r="H4" t="n">
-        <v>95.31999999999999</v>
+        <v>98.13</v>
       </c>
       <c r="I4" t="n">
-        <v>7.33</v>
+        <v>7.61</v>
       </c>
       <c r="J4" t="n">
-        <v>4149.98</v>
+        <v>3125.01</v>
       </c>
       <c r="K4" t="n">
-        <v>347.91</v>
+        <v>312.27</v>
       </c>
       <c r="L4" t="n">
-        <v>-59.26</v>
+        <v>-59.91</v>
       </c>
       <c r="M4" t="n">
-        <v>928.5</v>
+        <v>182.25</v>
       </c>
       <c r="N4" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="O4" t="n">
-        <v>154560.43</v>
+        <v>32668.53</v>
       </c>
       <c r="P4" t="n">
-        <v>26.99</v>
+        <v>24.29</v>
       </c>
     </row>
     <row r="5">
@@ -678,49 +678,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>479</v>
+        <v>109</v>
       </c>
       <c r="C5" t="n">
-        <v>458</v>
+        <v>106</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>163783.22</v>
+        <v>34537.06999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>1030</v>
+        <v>121</v>
       </c>
       <c r="G5" t="n">
-        <v>4927.733252290202</v>
+        <v>1338.40762331873</v>
       </c>
       <c r="H5" t="n">
-        <v>95.62</v>
+        <v>97.25</v>
       </c>
       <c r="I5" t="n">
-        <v>7.3</v>
+        <v>7.63</v>
       </c>
       <c r="J5" t="n">
-        <v>4149.98</v>
+        <v>3125.01</v>
       </c>
       <c r="K5" t="n">
-        <v>347.31</v>
+        <v>313.61</v>
       </c>
       <c r="L5" t="n">
-        <v>-59.16</v>
+        <v>-54.93</v>
       </c>
       <c r="M5" t="n">
-        <v>960</v>
+        <v>185.75</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O5" t="n">
-        <v>157825.49</v>
+        <v>33077.66</v>
       </c>
       <c r="P5" t="n">
-        <v>27.49</v>
+        <v>23.67</v>
       </c>
     </row>
     <row r="6">
@@ -730,49 +730,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>474</v>
+        <v>107</v>
       </c>
       <c r="C6" t="n">
-        <v>454</v>
+        <v>104</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>162549.27</v>
+        <v>33936.07</v>
       </c>
       <c r="F6" t="n">
-        <v>987</v>
+        <v>121</v>
       </c>
       <c r="G6" t="n">
-        <v>4891.070209546432</v>
+        <v>1320.22006467283</v>
       </c>
       <c r="H6" t="n">
-        <v>95.78</v>
+        <v>97.2</v>
       </c>
       <c r="I6" t="n">
-        <v>7.32</v>
+        <v>7.66</v>
       </c>
       <c r="J6" t="n">
-        <v>4149.98</v>
+        <v>3125.01</v>
       </c>
       <c r="K6" t="n">
-        <v>347.7</v>
+        <v>314.04</v>
       </c>
       <c r="L6" t="n">
-        <v>-59.33</v>
+        <v>-54.93</v>
       </c>
       <c r="M6" t="n">
-        <v>949.5</v>
+        <v>183</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="O6" t="n">
-        <v>156671.2</v>
+        <v>32494.85</v>
       </c>
       <c r="P6" t="n">
-        <v>27.65</v>
+        <v>23.55</v>
       </c>
     </row>
   </sheetData>
